--- a/open_cart01.xlsx
+++ b/open_cart01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19815" windowHeight="7665" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19815" windowHeight="7665" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Opern_cart_test_scenarios" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="Test_login" sheetId="3" r:id="rId3"/>
     <sheet name="Log_out" sheetId="4" r:id="rId4"/>
     <sheet name="Forgote_func" sheetId="6" r:id="rId5"/>
-    <sheet name="Search" sheetId="5" r:id="rId6"/>
+    <sheet name="Account_acces" sheetId="7" r:id="rId6"/>
+    <sheet name="Product_Search" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Test_Register!$J$11:$J$18</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="225">
   <si>
     <t>Column1</t>
   </si>
@@ -1060,6 +1061,51 @@
   </si>
   <si>
     <t>TC_FP_001</t>
+  </si>
+  <si>
+    <t>1.open The url
+2.Form Home page click on Login option.
+3.kept empty Registered Email-adress
+4.kept empty Password
+5.Click on forgot password</t>
+  </si>
+  <si>
+    <t>It it should take costumer to login rest page</t>
+  </si>
+  <si>
+    <t>It is takinig costumer to password reset page</t>
+  </si>
+  <si>
+    <t>1.open The url
+2.Form Home page click on Login option.
+3.Enter valid user name and Password
+4.click on login</t>
+  </si>
+  <si>
+    <t>It should take userto Home page</t>
+  </si>
+  <si>
+    <t>It is successfully taken user toHome page</t>
+  </si>
+  <si>
+    <t>E-Mail Address:ktestautomation@demo.com
+Password: 123457</t>
+  </si>
+  <si>
+    <t>it should not return to home page or any other page without user action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is working propely without causuing  any interptions </t>
+  </si>
+  <si>
+    <t>E-Mail Address:ktestautomation@demo.com
+Password: 123458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should not automatioc logout after standly mode before specified timeout </t>
+  </si>
+  <si>
+    <t>It is working properly</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1298,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1348,12 +1394,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="58">
     <dxf>
       <font>
         <b/>
@@ -1764,6 +1832,362 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="0"/>
@@ -1777,18 +2201,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1804,6 +2216,19 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1821,6 +2246,17 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1855,7 +2291,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1890,6 +2325,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2077,7 +2513,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2112,6 +2547,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2250,6 +2686,40 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
@@ -2262,7 +2732,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table17" displayName="Table17" ref="A1:D7" totalsRowShown="0" tableBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table17" displayName="Table17" ref="A1:D7" totalsRowShown="0" tableBorderDxfId="57">
   <autoFilter ref="A1:D7">
     <filterColumn colId="3"/>
   </autoFilter>
@@ -2277,7 +2747,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A9:D36" totalsRowShown="0" headerRowDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A9:D36" totalsRowShown="0" headerRowDxfId="56">
   <autoFilter ref="A9:D36"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Test Scenario ID"/>
@@ -2290,10 +2760,30 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A9:K10" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A9:K10" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="A9:K10">
     <filterColumn colId="3"/>
   </autoFilter>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Column1" dataDxfId="53"/>
+    <tableColumn id="2" name="Column2" dataDxfId="52"/>
+    <tableColumn id="3" name="Column3" dataDxfId="51"/>
+    <tableColumn id="11" name="Column32" dataDxfId="50"/>
+    <tableColumn id="4" name="Column4" dataDxfId="49"/>
+    <tableColumn id="5" name="Column5" dataDxfId="48"/>
+    <tableColumn id="6" name="Column6" dataDxfId="47"/>
+    <tableColumn id="7" name="Column7" dataDxfId="46"/>
+    <tableColumn id="8" name="Column8" dataDxfId="45"/>
+    <tableColumn id="9" name="Column9" dataDxfId="44"/>
+    <tableColumn id="10" name="Column10" dataDxfId="43"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A9:K17" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+  <autoFilter ref="A9:K17"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Column1" dataDxfId="40"/>
     <tableColumn id="2" name="Column2" dataDxfId="39"/>
@@ -2306,26 +2796,6 @@
     <tableColumn id="8" name="Column8" dataDxfId="32"/>
     <tableColumn id="9" name="Column9" dataDxfId="31"/>
     <tableColumn id="10" name="Column10" dataDxfId="30"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A9:K17" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A9:K17"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="Column1" dataDxfId="27"/>
-    <tableColumn id="2" name="Column2" dataDxfId="26"/>
-    <tableColumn id="3" name="Column3" dataDxfId="25"/>
-    <tableColumn id="11" name="Column32" dataDxfId="24"/>
-    <tableColumn id="4" name="Column4" dataDxfId="23"/>
-    <tableColumn id="5" name="Column5" dataDxfId="22"/>
-    <tableColumn id="6" name="Column6" dataDxfId="21"/>
-    <tableColumn id="7" name="Column7" dataDxfId="20"/>
-    <tableColumn id="8" name="Column8" dataDxfId="19"/>
-    <tableColumn id="9" name="Column9" dataDxfId="18"/>
-    <tableColumn id="10" name="Column10" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2344,15 +2814,34 @@
     <tableColumn id="7" name="Column7"/>
     <tableColumn id="8" name="Column8"/>
     <tableColumn id="9" name="Column9"/>
-    <tableColumn id="10" name="Column10" dataDxfId="16"/>
+    <tableColumn id="10" name="Column10" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A11:J15" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A11:J15" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <autoFilter ref="A11:J15"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Column1" dataDxfId="23"/>
+    <tableColumn id="2" name="Column2" dataDxfId="22"/>
+    <tableColumn id="3" name="Column3" dataDxfId="21"/>
+    <tableColumn id="4" name="Column4" dataDxfId="20"/>
+    <tableColumn id="5" name="Column5" dataDxfId="19"/>
+    <tableColumn id="6" name="Column6" dataDxfId="18"/>
+    <tableColumn id="7" name="Column7" dataDxfId="17"/>
+    <tableColumn id="8" name="Column8" dataDxfId="16"/>
+    <tableColumn id="9" name="Column9" dataDxfId="15"/>
+    <tableColumn id="10" name="Column10" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A10:J14" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="12">
+  <autoFilter ref="A10:J14"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Column1" dataDxfId="11"/>
     <tableColumn id="2" name="Column2" dataDxfId="10"/>
@@ -2369,8 +2858,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A9:J14" totalsRowShown="0" tableBorderDxfId="15">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A9:J14" totalsRowShown="0" tableBorderDxfId="13">
   <autoFilter ref="A9:J14"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Column1"/>
@@ -2675,8 +3164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3637,8 +4126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4295,10 +4784,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J16"/>
+  <dimension ref="A3:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4308,15 +4797,12 @@
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="9" width="11" customWidth="1"/>
+    <col min="6" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>211</v>
-      </c>
-    </row>
     <row r="3" spans="1:10">
       <c r="A3" s="14" t="s">
         <v>3</v>
@@ -4441,7 +4927,7 @@
       <c r="I13" s="39"/>
       <c r="J13" s="41"/>
     </row>
-    <row r="14" spans="1:10" ht="270">
+    <row r="14" spans="1:10" ht="180">
       <c r="A14" s="46" t="s">
         <v>20</v>
       </c>
@@ -4455,13 +4941,23 @@
         <v>92</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="45"/>
+        <v>213</v>
+      </c>
+      <c r="F14" s="42">
+        <v>0</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="H14" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="42"/>
@@ -4497,17 +4993,260 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:J10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="11" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="17">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="17">
+        <v>45327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1">
+      <c r="A10" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="27" customHeight="1">
+      <c r="A11" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="120">
+      <c r="A12" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="H12" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="120">
+      <c r="A13" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="H13" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="120">
+      <c r="A14" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4564,7 +5303,7 @@
         <v>45327</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" hidden="1">
       <c r="A9" t="s">
         <v>0</v>
       </c>

--- a/open_cart01.xlsx
+++ b/open_cart01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19815" windowHeight="7665" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19815" windowHeight="7665" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Opern_cart_test_scenarios" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="225">
   <si>
     <t>Column1</t>
   </si>
@@ -1423,50 +1423,11 @@
   </cellStyles>
   <dxfs count="58">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.59999389629810485"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.59999389629810485"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1825,11 +1786,50 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2840,26 +2840,26 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A10:J14" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A10:J14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A10:J14"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Column1" dataDxfId="11"/>
-    <tableColumn id="2" name="Column2" dataDxfId="10"/>
-    <tableColumn id="3" name="Column3" dataDxfId="9"/>
-    <tableColumn id="4" name="Column4" dataDxfId="8"/>
-    <tableColumn id="5" name="Column5" dataDxfId="7"/>
-    <tableColumn id="6" name="Column6" dataDxfId="6"/>
-    <tableColumn id="7" name="Column7" dataDxfId="5"/>
-    <tableColumn id="8" name="Column8" dataDxfId="4"/>
-    <tableColumn id="9" name="Column9" dataDxfId="3"/>
-    <tableColumn id="10" name="Column10" dataDxfId="2"/>
+    <tableColumn id="1" name="Column1" dataDxfId="10"/>
+    <tableColumn id="2" name="Column2" dataDxfId="9"/>
+    <tableColumn id="3" name="Column3" dataDxfId="8"/>
+    <tableColumn id="4" name="Column4" dataDxfId="7"/>
+    <tableColumn id="5" name="Column5" dataDxfId="6"/>
+    <tableColumn id="6" name="Column6" dataDxfId="5"/>
+    <tableColumn id="7" name="Column7" dataDxfId="4"/>
+    <tableColumn id="8" name="Column8" dataDxfId="3"/>
+    <tableColumn id="9" name="Column9" dataDxfId="2"/>
+    <tableColumn id="10" name="Column10" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A9:J14" totalsRowShown="0" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A9:J14" totalsRowShown="0" tableBorderDxfId="0">
   <autoFilter ref="A9:J14"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Column1"/>
@@ -3165,7 +3165,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4995,7 +4995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -5158,7 +5158,7 @@
     </row>
     <row r="13" spans="1:10" ht="120">
       <c r="A13" s="53" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="53" t="s">
         <v>156</v>
@@ -5190,7 +5190,7 @@
     </row>
     <row r="14" spans="1:10" ht="120">
       <c r="A14" s="53" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" s="53" t="s">
         <v>161</v>
@@ -5233,8 +5233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5367,6 +5367,17 @@
         <v>88</v>
       </c>
     </row>
+    <row r="11" spans="1:10" ht="30">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>

--- a/open_cart01.xlsx
+++ b/open_cart01.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19815" windowHeight="7665" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19815" windowHeight="7665" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Opern_cart_test_scenarios" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Log_out" sheetId="4" r:id="rId4"/>
     <sheet name="Forgote_func" sheetId="6" r:id="rId5"/>
     <sheet name="Account_acces" sheetId="7" r:id="rId6"/>
-    <sheet name="Product_Search" sheetId="5" r:id="rId7"/>
+    <sheet name="Product_Search" sheetId="5" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Test_Register!$J$11:$J$18</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -3164,8 +3164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3676,8 +3676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4127,7 +4127,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4518,7 +4518,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4787,7 +4787,7 @@
   <dimension ref="A3:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4995,8 +4995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5233,8 +5233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
